--- a/Python/Dual_Gap.xlsx
+++ b/Python/Dual_Gap.xlsx
@@ -396,7 +396,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>21737.03889853779</v>
+        <v>17411.21134672095</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7018.266821256282</v>
+        <v>9173.579814570081</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3208.971472394082</v>
+        <v>2961.077532573785</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1530.632357080663</v>
+        <v>2101.988324920458</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1280.056485271918</v>
+        <v>743.1958518727297</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1050.100652112418</v>
+        <v>661.0213315750952</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>529.5177398443557</v>
+        <v>174.4670001065715</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>375.5102806913055</v>
+        <v>49.36296619207133</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>320.6680466206271</v>
+        <v>8.393124819696823</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>121.6723945869526</v>
+        <v>7.149576209318184</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>32.77724219342417</v>
+        <v>2.00754201264499</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>8.241751528694294</v>
+        <v>0.833018357421679</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5.949348094272864</v>
+        <v>0.5128621907460911</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.427577797367121</v>
+        <v>0.3253228369903809</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.705952802880347</v>
+        <v>0.1333360770040599</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.36573930454324</v>
+        <v>0.08911632181843743</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +524,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.2355033990570519</v>
+        <v>0.03660308008329594</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +532,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.1532200739857217</v>
+        <v>0.01392354743438773</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.1153208192772581</v>
+        <v>0.006882322210003622</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.01883188942883862</v>
+        <v>0.006069891813240247</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.003312621778604807</v>
+        <v>0.003046154761250364</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Dual_Gap.xlsx
+++ b/Python/Dual_Gap.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,7 +396,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17411.21134672095</v>
+        <v>15989.88733493181</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9173.579814570081</v>
+        <v>8384.45687024474</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2961.077532573785</v>
+        <v>2278.683636387676</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2101.988324920458</v>
+        <v>718.8824173326211</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>743.1958518727297</v>
+        <v>247.9420917794487</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>661.0213315750952</v>
+        <v>202.2388035600379</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>174.4670001065715</v>
+        <v>82.94613219110761</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>49.36296619207133</v>
+        <v>25.22947109310553</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8.393124819696823</v>
+        <v>21.98953937586703</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7.149576209318184</v>
+        <v>5.100897334450565</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.00754201264499</v>
+        <v>3.654292052819073</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.833018357421679</v>
+        <v>2.461970878717693</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.5128621907460911</v>
+        <v>1.84729915492062</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.3253228369903809</v>
+        <v>0.740325886708888</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.1333360770040599</v>
+        <v>0.104300461080129</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.08911632181843743</v>
+        <v>0.02424340936340741</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +524,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.03660308008329594</v>
+        <v>0.01802442384359892</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +532,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.01392354743438773</v>
+        <v>0.01523415709743858</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,23 +540,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.006882322210003622</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0.006069891813240247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0.003046154761250364</v>
+        <v>0.003106687334366143</v>
       </c>
     </row>
   </sheetData>
